--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeTransaction.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeTransaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12885" windowHeight="5235" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12885" windowHeight="5235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FeeChequeBounce_Form" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Verify_ChequeBounceGridData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Academic Year</t>
   </si>
@@ -46,9 +45,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>SF2417/17-18</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -61,14 +57,14 @@
     <t>Student Name</t>
   </si>
   <si>
-    <t>Some One</t>
+    <t>SF3790/17-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,12 +83,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +122,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +422,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -473,11 +463,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -494,7 +484,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -515,10 +505,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -535,25 +525,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
